--- a/TestData/Web_POS/Staging/Billing/customer_tagging_test_data.xlsx
+++ b/TestData/Web_POS/Staging/Billing/customer_tagging_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\Web_POS\Staging\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>new_city</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>TC_01</t>
@@ -473,25 +476,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -504,7 +490,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -908,8 +894,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" topLeftCell="D21">
-      <selection activeCell="G2" sqref="G2:H30"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" topLeftCell="O1">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -917,20 +903,31 @@
     <col min="1" max="1" width="12.67969" customWidth="1"/>
     <col min="2" max="2" width="19.27734" customWidth="1"/>
     <col min="3" max="3" width="43.92969" customWidth="1"/>
-    <col min="4" max="4" width="19.27734" customWidth="1"/>
-    <col min="5" max="5" width="18.57031" customWidth="1"/>
-    <col min="6" max="6" width="14.82031" customWidth="1"/>
-    <col min="7" max="7" width="16.77734" customWidth="1"/>
-    <col min="8" max="9" width="19.09766" customWidth="1"/>
-    <col min="10" max="10" width="39.64063" style="1" customWidth="1"/>
-    <col min="11" max="12" width="31.95703" style="1" customWidth="1"/>
-    <col min="13" max="14" width="28.75" customWidth="1"/>
-    <col min="15" max="17" width="19.09766" customWidth="1"/>
-    <col min="18" max="19" width="29.45703" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.20703" customWidth="1"/>
-    <col min="21" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="28.75" customWidth="1"/>
-    <col min="24" max="1025" width="12.67969" customWidth="1"/>
+    <col min="4" max="4" width="10.28516" customWidth="1"/>
+    <col min="5" max="5" width="14.85547" customWidth="1"/>
+    <col min="6" max="6" width="6.710938" customWidth="1"/>
+    <col min="7" max="7" width="14.28516" customWidth="1"/>
+    <col min="8" max="8" width="10.57031" customWidth="1"/>
+    <col min="9" max="9" width="14.42578" customWidth="1"/>
+    <col min="10" max="10" width="16.71094" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.71094" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28516" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.14063" customWidth="1"/>
+    <col min="14" max="14" width="16.71094" customWidth="1"/>
+    <col min="15" max="15" width="10.28516" customWidth="1"/>
+    <col min="16" max="16" width="11.71094" customWidth="1"/>
+    <col min="17" max="17" width="7.710938" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85547" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85547" customWidth="1"/>
+    <col min="21" max="21" width="10.85547" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="14.14063" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="25" max="25" width="11.85547" customWidth="1"/>
+    <col min="26" max="26" width="12.14063" customWidth="1"/>
+    <col min="27" max="27" width="9.570313" customWidth="1"/>
+    <col min="28" max="1025" width="12.67969" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1015,37 +1012,40 @@
       <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>123456</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="8">
         <v>123456</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -1054,55 +1054,58 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="11">
         <v>45386</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3"/>
+      <c r="AB2">
+        <v>7418529630</v>
+      </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>123456</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="8">
         <v>123456</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -1111,55 +1114,58 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" s="11">
         <v>45386</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S3" s="3"/>
+      <c r="AB3">
+        <v>9741235864</v>
+      </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>123456</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="8">
         <v>123456</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1168,55 +1174,58 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="11">
         <v>45386</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S4" s="3"/>
+      <c r="AB4">
+        <v>9741235864</v>
+      </c>
     </row>
     <row r="5" ht="34.6" customHeight="1">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>123456</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="8">
         <v>123456</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1225,61 +1234,64 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" s="11">
         <v>45386</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S5" s="3"/>
       <c r="Y5">
         <v>411001</v>
       </c>
       <c r="Z5" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AB5">
+        <v>9623587412</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>123456</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8">
         <v>123456</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -1288,55 +1300,58 @@
         <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O6" s="11">
         <v>45386</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S6" s="3"/>
+      <c r="AB6">
+        <v>7418529630</v>
+      </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>123456</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8">
         <v>123456</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -1345,55 +1360,58 @@
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O7" s="11">
         <v>45386</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S7" s="3"/>
+      <c r="AB7">
+        <v>7418529630</v>
+      </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>123456</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8">
         <v>123456</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -1402,55 +1420,58 @@
         <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O8" s="11">
         <v>45386</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S8" s="3"/>
+      <c r="AB8">
+        <v>7418529630</v>
+      </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>123456</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8">
         <v>123456</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -1459,55 +1480,58 @@
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O9" s="11">
         <v>45386</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S9" s="3"/>
+      <c r="AB9">
+        <v>7418529630</v>
+      </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>123456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8">
         <v>123456</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -1516,58 +1540,61 @@
         <v>2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O10" s="11">
         <v>45386</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S10" s="3"/>
       <c r="W10">
         <v>9876543212</v>
       </c>
-    </row>
-    <row r="11" ht="14.25">
+      <c r="AB10">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>123456</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8">
         <v>123456</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1576,178 +1603,187 @@
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O11" s="11">
         <v>45386</v>
       </c>
       <c r="P11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="AB11">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="12" ht="57">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" ht="28.5">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="O12" s="11">
         <v>45386</v>
       </c>
       <c r="P12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="AB12">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="13" ht="38.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" ht="25.5">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="O13" s="11">
         <v>45386</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S13" s="12"/>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y13">
         <v>411001</v>
       </c>
-    </row>
-    <row r="14" ht="25.5">
+      <c r="AB13">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="14" ht="38.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>123456</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8">
         <v>123456</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -1756,64 +1792,67 @@
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O14" s="11">
         <v>45386</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S14" s="12"/>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14">
         <v>411001</v>
       </c>
-    </row>
-    <row r="15" ht="14.25">
+      <c r="AB14">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>123456</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="8">
         <v>123456</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
@@ -1822,28 +1861,28 @@
         <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O15" s="11">
         <v>45386</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W15">
         <v>9876543212</v>
@@ -1851,37 +1890,40 @@
       <c r="Y15">
         <v>411001</v>
       </c>
-    </row>
-    <row r="16" ht="14.25">
+      <c r="AB15">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="16" ht="38.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>123456</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="8">
         <v>123456</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -1890,26 +1932,26 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O16" s="11">
         <v>45386</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W16">
         <v>9876543212</v>
@@ -1917,37 +1959,40 @@
       <c r="Y16">
         <v>411001</v>
       </c>
-    </row>
-    <row r="17" ht="14.25">
+      <c r="AB16">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="17" ht="38.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>123456</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="8">
         <v>123456</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -1956,64 +2001,67 @@
         <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O17" s="11">
         <v>45386</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W17">
         <v>9876543212</v>
       </c>
       <c r="X17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
+        <v>83</v>
+      </c>
+      <c r="AB17">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>123456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="8">
         <v>123456</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -2022,64 +2070,67 @@
         <v>3</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O18" s="11">
         <v>45386</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W18">
         <v>9876543212</v>
       </c>
       <c r="X18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" ht="25.5">
+        <v>72</v>
+      </c>
+      <c r="AB18">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="19" ht="38.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>123456</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8">
         <v>123456</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2088,34 +2139,34 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O19" s="11">
         <v>45386</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W19">
         <v>8149214985</v>
@@ -2123,37 +2174,40 @@
       <c r="Y19">
         <v>411001</v>
       </c>
-    </row>
-    <row r="20" ht="14.25">
+      <c r="AB19">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>123456</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" s="8">
         <v>123456</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -2162,28 +2216,28 @@
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O20" s="11">
         <v>45386</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U20" s="13">
         <v>123456789876543</v>
@@ -2197,37 +2251,40 @@
       <c r="Y20">
         <v>411001</v>
       </c>
-    </row>
-    <row r="21" ht="25.5">
+      <c r="AB20">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="21" ht="38.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>123456</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" s="8">
         <v>123456</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -2236,70 +2293,73 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O21" s="11">
         <v>45386</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y21" s="13">
         <v>791102</v>
       </c>
       <c r="AA21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
+        <v>101</v>
+      </c>
+      <c r="AB21">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="22" ht="38.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>123456</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" s="8">
         <v>123456</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -2308,28 +2368,28 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O22" s="11">
         <v>45386</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U22">
         <v>123456765445434</v>
@@ -2337,37 +2397,40 @@
       <c r="Y22">
         <v>411001</v>
       </c>
-    </row>
-    <row r="23" ht="14.25">
+      <c r="AB22">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="23" ht="51">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>123456</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="8">
         <v>123456</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
@@ -2376,119 +2439,119 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O23" s="11">
         <v>45386</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y23">
         <v>411001</v>
       </c>
     </row>
-    <row r="24" ht="14.25">
+    <row r="24" ht="38.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>123456</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" s="8">
         <v>123456</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L24" s="1">
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O24" s="11">
         <v>45386</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y24">
         <v>411001</v>
       </c>
     </row>
-    <row r="25" ht="25.5">
+    <row r="25" ht="38.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>123456</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F25" s="8">
         <v>123456</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -2497,31 +2560,31 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O25" s="11">
         <v>45386</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W25">
         <v>8149214985</v>
@@ -2529,37 +2592,40 @@
       <c r="Y25">
         <v>411001</v>
       </c>
-    </row>
-    <row r="26" ht="14.25">
+      <c r="AB25">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>123456</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" s="8">
         <v>123456</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -2568,28 +2634,28 @@
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O26" s="11">
         <v>45386</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U26">
         <v>123456765445434</v>
@@ -2598,42 +2664,45 @@
         <v>8149214985</v>
       </c>
       <c r="X26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y26" s="1">
         <v>791113</v>
       </c>
-    </row>
-    <row r="27" ht="14.25">
+      <c r="AB26">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>123456</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" s="8">
         <v>123456</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
@@ -2642,66 +2711,69 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O27" s="11">
         <v>45386</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y27">
         <v>411001</v>
       </c>
-    </row>
-    <row r="28" ht="14.25">
+      <c r="AB27">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>123456</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" s="8">
         <v>123456</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -2710,60 +2782,63 @@
         <v>2</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O28" s="11">
         <v>45386</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W28">
         <v>656765</v>
       </c>
-    </row>
-    <row r="29" ht="14.25">
+      <c r="AB28">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>123456</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29" s="8">
         <v>123456</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -2772,83 +2847,89 @@
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O29" s="11">
         <v>45386</v>
       </c>
       <c r="P29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB29">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="30" ht="25.5">
+      <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="O30" s="11">
         <v>45386</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S30" s="3"/>
+      <c r="AB30">
+        <v>7418529630</v>
+      </c>
     </row>
     <row r="31" ht="14.25">
       <c r="B31" s="1"/>
